--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Compass installation and interference</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -571,42 +571,67 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Failed to take</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compass installation and interference</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -571,67 +571,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Failed to take</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
